--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
   <si>
     <t>Profile</t>
   </si>
@@ -45,6 +45,66 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>ObservationVHcase13</t>
+  </si>
+  <si>
+    <t>null#social-history</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>null#76691-5</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>ObservationVHcase48</t>
+  </si>
+  <si>
+    <t>CodeableConcept, boolean</t>
+  </si>
+  <si>
+    <t>ObservationVHcase49</t>
+  </si>
+  <si>
+    <t>null#161664006</t>
+  </si>
+  <si>
+    <t>ObservationVHcase50</t>
+  </si>
+  <si>
+    <t>null#161693006</t>
+  </si>
+  <si>
+    <t>ObservationVHcase51</t>
+  </si>
+  <si>
+    <t>null#45231-8</t>
+  </si>
+  <si>
+    <t>ObservationVHcase55</t>
+  </si>
+  <si>
+    <t>null#243789007</t>
+  </si>
+  <si>
+    <t>ObservationVHcase56</t>
+  </si>
+  <si>
+    <t>null#16584000</t>
   </si>
 </sst>
 </file>
@@ -178,7 +238,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -219,6 +279,251 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="73">
   <si>
     <t>Profile</t>
   </si>
@@ -50,7 +50,7 @@
     <t>ObservationVHcase13</t>
   </si>
   <si>
-    <t>null#social-history</t>
+    <t>Observation Category Codes#social-history</t>
   </si>
   <si>
     <t/>
@@ -105,6 +105,132 @@
   </si>
   <si>
     <t>null#16584000</t>
+  </si>
+  <si>
+    <t>VHcarealbumin</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory</t>
+  </si>
+  <si>
+    <t>LOINC#1751-7</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>VHcareALT</t>
+  </si>
+  <si>
+    <t>LOINC#77144-4</t>
+  </si>
+  <si>
+    <t>VHcareaminotransferaseScore</t>
+  </si>
+  <si>
+    <t>LOINC#86465-2</t>
+  </si>
+  <si>
+    <t>VHcareAntiHCV</t>
+  </si>
+  <si>
+    <t>LOINC#95237-4</t>
+  </si>
+  <si>
+    <t>VHcareAST</t>
+  </si>
+  <si>
+    <t>LOINC#1920-8</t>
+  </si>
+  <si>
+    <t>VHcarechildTurcottePugh</t>
+  </si>
+  <si>
+    <t>LOINC#98152-2, LOINC#41806-1, LOINC#24556-3</t>
+  </si>
+  <si>
+    <t>VHcarefibrosis</t>
+  </si>
+  <si>
+    <t>LOINC#98488-0</t>
+  </si>
+  <si>
+    <t>VHcareHBeAg</t>
+  </si>
+  <si>
+    <t>LOINC#39007-0</t>
+  </si>
+  <si>
+    <t>VHcareHBsAg</t>
+  </si>
+  <si>
+    <t>LOINC#5195-3</t>
+  </si>
+  <si>
+    <t>VHcareHBVDNA</t>
+  </si>
+  <si>
+    <t>LOINC#47216-7</t>
+  </si>
+  <si>
+    <t>VHcareHCVRNAQuali</t>
+  </si>
+  <si>
+    <t>LOINC#10676-5</t>
+  </si>
+  <si>
+    <t>VHcareHCVRNAQuanti</t>
+  </si>
+  <si>
+    <t>VHcareheight</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#vital-signs</t>
+  </si>
+  <si>
+    <t>LOINC#8302-2</t>
+  </si>
+  <si>
+    <t>VHcareImaging</t>
+  </si>
+  <si>
+    <t>LOINC#28614-6, LOINC#41806-1, LOINC#24556-3</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>VHcareplateletCount</t>
+  </si>
+  <si>
+    <t>LOINC#26515-7</t>
+  </si>
+  <si>
+    <t>VHcarePTINR</t>
+  </si>
+  <si>
+    <t>LOINC#5902-2</t>
+  </si>
+  <si>
+    <t>VHcaretotalBilirubin</t>
+  </si>
+  <si>
+    <t>LOINC#1975-2</t>
+  </si>
+  <si>
+    <t>VHcaretransientElastography</t>
+  </si>
+  <si>
+    <t>LOINC#77615-3</t>
+  </si>
+  <si>
+    <t>VHcareweight</t>
+  </si>
+  <si>
+    <t>LOINC#29463-7</t>
   </si>
 </sst>
 </file>
@@ -226,10 +352,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -238,7 +364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -524,6 +650,671 @@
         <v>13</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="86">
   <si>
     <t>Profile</t>
   </si>
@@ -47,30 +47,63 @@
     <t>Method</t>
   </si>
   <si>
+    <t>HepatocellularCarcinomaFollowingTreatment</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>SNOMED CT#25370001</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>HepBInfection</t>
+  </si>
+  <si>
+    <t>SNOMED CT#186626002</t>
+  </si>
+  <si>
+    <t>HepCInfection</t>
+  </si>
+  <si>
+    <t>SNOMED CT#838377003</t>
+  </si>
+  <si>
+    <t>HIVcoInfection</t>
+  </si>
+  <si>
+    <t>SNOMED CT#19030005</t>
+  </si>
+  <si>
+    <t>LiverCirrhosisFollowingTreatment</t>
+  </si>
+  <si>
+    <t>SNOMED CT#19943007</t>
+  </si>
+  <si>
     <t>ObservationVHcase13</t>
   </si>
   <si>
     <t>Observation Category Codes#social-history</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>null#76691-5</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
   </si>
   <si>
-    <t>dateTime, Period, Timing, instant</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
-    <t>optional</t>
-  </si>
-  <si>
     <t>ObservationVHcase48</t>
   </si>
   <si>
@@ -105,6 +138,12 @@
   </si>
   <si>
     <t>null#16584000</t>
+  </si>
+  <si>
+    <t>OthercoInfection</t>
+  </si>
+  <si>
+    <t>string, boolean</t>
   </si>
   <si>
     <t>VHcarealbumin</t>
@@ -364,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -416,728 +455,728 @@
         <v>12</v>
       </c>
       <c r="D2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="F2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="H2" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="G2" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="I2" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>12</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="I3" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>12</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="I4" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>12</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>12</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="I6" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s" s="2">
+      <c r="F7" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="F7" t="s" s="2">
-        <v>15</v>
-      </c>
       <c r="G7" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s" s="2">
         <v>33</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="B15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="F15" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="I16" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -1148,31 +1187,31 @@
         <v>63</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s" s="2">
         <v>64</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -1183,31 +1222,31 @@
         <v>65</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s" s="2">
         <v>66</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1218,31 +1257,31 @@
         <v>67</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s" s="2">
         <v>68</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1253,66 +1292,276 @@
         <v>69</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="B27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>58</v>
-      </c>
       <c r="D27" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="86">
   <si>
     <t>Profile</t>
   </si>
@@ -47,100 +47,229 @@
     <t>Method</t>
   </si>
   <si>
-    <t>Observation-alcoholuse-uv-ips</t>
-  </si>
-  <si>
-    <t>Observation - SH: alcohol use</t>
+    <t>HepatocellularCarcinomaFollowingTreatment</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>LOINC#74013-4</t>
-  </si>
-  <si>
-    <t>dateTimeĵ</t>
+    <t>SNOMED CT#25370001</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>HepBInfection</t>
+  </si>
+  <si>
+    <t>SNOMED CT#186626002</t>
+  </si>
+  <si>
+    <t>HepCInfection</t>
+  </si>
+  <si>
+    <t>SNOMED CT#838377003</t>
+  </si>
+  <si>
+    <t>HIVcoInfection</t>
+  </si>
+  <si>
+    <t>SNOMED CT#19030005</t>
+  </si>
+  <si>
+    <t>LiverCirrhosisFollowingTreatment</t>
+  </si>
+  <si>
+    <t>SNOMED CT#19943007</t>
+  </si>
+  <si>
+    <t>ObservationVHcase13</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history</t>
+  </si>
+  <si>
+    <t>null#76691-5</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ObservationVHcase48</t>
+  </si>
+  <si>
+    <t>CodeableConcept, boolean</t>
+  </si>
+  <si>
+    <t>ObservationVHcase49</t>
+  </si>
+  <si>
+    <t>null#161664006</t>
+  </si>
+  <si>
+    <t>ObservationVHcase50</t>
+  </si>
+  <si>
+    <t>null#161693006</t>
+  </si>
+  <si>
+    <t>ObservationVHcase51</t>
+  </si>
+  <si>
+    <t>null#45231-8</t>
+  </si>
+  <si>
+    <t>ObservationVHcase55</t>
+  </si>
+  <si>
+    <t>null#243789007</t>
+  </si>
+  <si>
+    <t>ObservationVHcase56</t>
+  </si>
+  <si>
+    <t>null#16584000</t>
+  </si>
+  <si>
+    <t>OthercoInfection</t>
+  </si>
+  <si>
+    <t>string, boolean</t>
+  </si>
+  <si>
+    <t>VHcarealbumin</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory</t>
+  </si>
+  <si>
+    <t>LOINC#1751-7</t>
+  </si>
+  <si>
+    <t>dateTime</t>
   </si>
   <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>Observation-pregnancy-status-uv-ips</t>
-  </si>
-  <si>
-    <t>Observation - Pregnancy: status</t>
-  </si>
-  <si>
-    <t>LOINC#82810-3</t>
+    <t>VHcareALT</t>
+  </si>
+  <si>
+    <t>LOINC#77144-4</t>
+  </si>
+  <si>
+    <t>VHcareaminotransferaseScore</t>
+  </si>
+  <si>
+    <t>LOINC#86465-2</t>
+  </si>
+  <si>
+    <t>VHcareAntiHCV</t>
+  </si>
+  <si>
+    <t>LOINC#95237-4</t>
+  </si>
+  <si>
+    <t>VHcareAST</t>
+  </si>
+  <si>
+    <t>LOINC#1920-8</t>
+  </si>
+  <si>
+    <t>VHcarechildTurcottePugh</t>
+  </si>
+  <si>
+    <t>LOINC#98152-2, LOINC#41806-1, LOINC#24556-3</t>
+  </si>
+  <si>
+    <t>VHcarefibrosis</t>
+  </si>
+  <si>
+    <t>LOINC#98488-0</t>
+  </si>
+  <si>
+    <t>VHcareHBeAg</t>
+  </si>
+  <si>
+    <t>LOINC#39007-0</t>
+  </si>
+  <si>
+    <t>VHcareHBsAg</t>
+  </si>
+  <si>
+    <t>LOINC#5195-3</t>
+  </si>
+  <si>
+    <t>VHcareHBVDNA</t>
+  </si>
+  <si>
+    <t>LOINC#47216-7</t>
+  </si>
+  <si>
+    <t>VHcareHCVRNAQuali</t>
+  </si>
+  <si>
+    <t>LOINC#10676-5</t>
+  </si>
+  <si>
+    <t>VHcareHCVRNAQuanti</t>
+  </si>
+  <si>
+    <t>VHcareheight</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#vital-signs</t>
+  </si>
+  <si>
+    <t>LOINC#8302-2</t>
+  </si>
+  <si>
+    <t>VHcareImaging</t>
+  </si>
+  <si>
+    <t>LOINC#28614-6, LOINC#41806-1, LOINC#24556-3</t>
   </si>
   <si>
     <t>CodeableConcept</t>
   </si>
   <si>
-    <t>Observation-results-laboratory-uv-ips</t>
-  </si>
-  <si>
-    <t>Observation Results: laboratory (IPS)</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/results-laboratory-observations-uv-ips (preferred)</t>
-  </si>
-  <si>
-    <t>dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
-    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
-    <t>Observation-results-pathology-uv-ips</t>
-  </si>
-  <si>
-    <t>Observation Results: pathology (IPS)</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/results-pathology-observations-uv-ips (extensible)</t>
-  </si>
-  <si>
-    <t>Observation-results-radiology-uv-ips</t>
-  </si>
-  <si>
-    <t>Observation Results: radiology (IPS)</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#imaging</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/results-radiology-observations-uv-ips (extensible)</t>
-  </si>
-  <si>
-    <t>stringĵ</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-  <si>
-    <t>Ratio</t>
-  </si>
-  <si>
-    <t>SampledData</t>
-  </si>
-  <si>
-    <t>Observation-tobaccouse-uv-ips</t>
-  </si>
-  <si>
-    <t>Observation - SH: tobacco use</t>
-  </si>
-  <si>
-    <t>LOINC#72166-2</t>
+    <t>VHcareplateletCount</t>
+  </si>
+  <si>
+    <t>LOINC#26515-7</t>
+  </si>
+  <si>
+    <t>VHcarePTINR</t>
+  </si>
+  <si>
+    <t>LOINC#5902-2</t>
+  </si>
+  <si>
+    <t>VHcaretotalBilirubin</t>
+  </si>
+  <si>
+    <t>LOINC#1975-2</t>
+  </si>
+  <si>
+    <t>VHcaretransientElastography</t>
+  </si>
+  <si>
+    <t>LOINC#77615-3</t>
+  </si>
+  <si>
+    <t>VHcareweight</t>
+  </si>
+  <si>
+    <t>LOINC#29463-7</t>
   </si>
 </sst>
 </file>
@@ -274,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -320,384 +449,384 @@
         <v>11</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D2" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s" s="2">
+      <c r="F2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="F2" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>16</v>
-      </c>
       <c r="I2" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="F3" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>21</v>
-      </c>
       <c r="I3" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -705,34 +834,734 @@
         <v>40</v>
       </c>
       <c r="B13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s" s="2">
+      <c r="F13" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F13" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>13</v>
+      <c r="B14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
